--- a/bfrpg/checklist.xlsx
+++ b/bfrpg/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/osr-collectors-list/bfrpg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9356C79-9301-084A-BBAE-5F335117BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49AC65F0-10A4-8A45-944A-27A3CD1084DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25000" windowHeight="15800" xr2:uid="{2CB9B7FD-932C-B449-9DE0-1AB9A894A9C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -75,6 +75,69 @@
   </si>
   <si>
     <t>bfrpg_03.jpeg</t>
+  </si>
+  <si>
+    <t>cagegory</t>
+  </si>
+  <si>
+    <t>osr</t>
+  </si>
+  <si>
+    <t>BF1 Morgansfort: The Western Lands Campaign</t>
+  </si>
+  <si>
+    <t>BF2 Fortress, Tomb, and Tower: The Glain Campaign</t>
+  </si>
+  <si>
+    <t>JN1 The Chaotic Caves</t>
+  </si>
+  <si>
+    <t>JN2 Monkey Isle</t>
+  </si>
+  <si>
+    <t>AA1 Adventure Anthology One</t>
+  </si>
+  <si>
+    <t>BF1 Morgansfort: The Western Lands Campaign, 2nd Edition</t>
+  </si>
+  <si>
+    <t>morgansfort_01.jpeg</t>
+  </si>
+  <si>
+    <t>morgansfort_02.jpeg</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>bfrpg_04.jpeg</t>
+  </si>
+  <si>
+    <t>bfrpg_05.jpeg</t>
+  </si>
+  <si>
+    <t>bfrpg_06.jpeg</t>
+  </si>
+  <si>
+    <t>BF2 Fortress, Tomb, and Tower: The Glain Campaign, Revised Cover</t>
+  </si>
+  <si>
+    <t>JN1 The Chaotic Caves, Revised Cover</t>
+  </si>
+  <si>
+    <t>JN2 Monkey Isle, Revised Cover</t>
+  </si>
+  <si>
+    <t>bfrpg_07.jpeg</t>
+  </si>
+  <si>
+    <t>bfrpg_08.jpeg</t>
+  </si>
+  <si>
+    <t>bfrpg_09.jpeg</t>
+  </si>
+  <si>
+    <t>bfrpg_10.jpeg</t>
   </si>
 </sst>
 </file>
@@ -454,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1647BC-5CE9-9F46-898E-6163F25C7AB8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +546,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -500,10 +566,13 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -517,8 +586,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -533,6 +605,189 @@
       </c>
       <c r="E4" t="s">
         <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
